--- a/now-activity.xlsx
+++ b/now-activity.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\book\livingbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\liangge\Documents\book\betterman\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97D8B33-F9B5-475F-AEBD-A3E29B6F1A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11430"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="活动透视" sheetId="4" r:id="rId1"/>
-    <sheet name="活动数据" sheetId="1" r:id="rId2"/>
+    <sheet name="每日活动数据" sheetId="1" r:id="rId2"/>
+    <sheet name="人生数据" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="切片器_类别">#N/A</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="55" r:id="rId3"/>
+    <pivotCache cacheId="77" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId4"/>
+        <x14:slicerCache r:id="rId5"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,22 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>篮球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳绳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羽毛球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,13 +144,77 @@
   </si>
   <si>
     <t>总计</t>
+  </si>
+  <si>
+    <t>健康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计人生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌控情绪</t>
+  </si>
+  <si>
+    <t>掌控情绪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸福</t>
+  </si>
+  <si>
+    <t>幸福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考</t>
+  </si>
+  <si>
+    <t>思考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达</t>
+  </si>
+  <si>
+    <t>表达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌控幸福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警戒线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱情、亲情、爱好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心理、情绪、身体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +227,15 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -203,7 +262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -214,6 +273,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -252,7 +317,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -313,6 +377,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -346,37 +451,53 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>活动透视!$A$4:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>工作</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>娱乐</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>成长</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>运动</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>爱好</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>社交</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>活动透视!$A$4:$A$14</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="4">
+                    <c:v>掌控情绪</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>工作</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>娱乐</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>幸福</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>运动</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>成长</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>表达</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>思考</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>爱好</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>社交</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>活动透视!$B$4:$B$10</c:f>
+              <c:f>活动透视!$B$4:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -384,15 +505,24 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -533,7 +663,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -616,7 +745,514 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>人生仪表盘</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>人生数据!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>分数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>人生数据!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>健康</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>工作</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>娱乐</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>爱</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>人生数据!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-61EE-4904-9D59-AE9911994D8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="729595920"/>
+        <c:axId val="729588240"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>人生数据!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>警戒线</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>人生数据!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>健康</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>工作</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>娱乐</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>爱</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>人生数据!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-61EE-4904-9D59-AE9911994D8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="729595920"/>
+        <c:axId val="729588240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="729595920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="729588240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="729588240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="729595920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1161,6 +1797,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1173,14 +2312,20 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="类别"/>
+            <xdr:cNvPr id="3" name="类别">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr>
               <a:graphicFrameLocks/>
             </xdr:cNvGraphicFramePr>
@@ -1196,7 +2341,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1245,14 +2390,61 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{477C555F-C21F-0E11-7CC1-1A5B6996D944}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1271,23 +2463,26 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="liangge" refreshedDate="45049.426845023147" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="16">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="lenovo" refreshedDate="45060.050903587966" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="17" xr:uid="{A7853069-F662-4451-B536-6328C5C014C0}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:C17" sheet="活动数据"/>
+    <worksheetSource ref="A1:C18" sheet="每日活动数据"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="类别" numFmtId="0">
-      <sharedItems count="6">
+      <sharedItems count="9">
         <s v="工作"/>
         <s v="娱乐"/>
         <s v="社交"/>
         <s v="爱好"/>
         <s v="运动"/>
         <s v="成长"/>
+        <s v="幸福"/>
+        <s v="思考"/>
+        <s v="表达"/>
       </sharedItems>
     </cacheField>
     <cacheField name="活动名称" numFmtId="0">
-      <sharedItems containsBlank="1" count="16">
+      <sharedItems containsBlank="1" count="18">
         <s v="方案设计"/>
         <s v="编程"/>
         <s v="经营管理"/>
@@ -1299,11 +2494,13 @@
         <m/>
         <s v="舞动人生"/>
         <s v="健身房"/>
-        <s v="篮球"/>
-        <s v="跳绳"/>
-        <s v="羽毛球"/>
-        <s v="看书"/>
-        <s v="没有" u="1"/>
+        <s v="掌控情绪"/>
+        <s v="设计人生"/>
+        <s v="掌控幸福"/>
+        <s v="篮球" u="1"/>
+        <s v="学会幸福" u="1"/>
+        <s v="跳绳" u="1"/>
+        <s v="羽毛球" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="活动时间" numFmtId="0">
@@ -1312,14 +2509,14 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="2"/>
+      <x14:pivotCacheDefinition pivotCacheId="1077708392"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="16">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="17">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -1373,48 +2570,56 @@
   <r>
     <x v="4"/>
     <x v="9"/>
-    <n v="0.2"/>
+    <n v="0.5"/>
   </r>
   <r>
     <x v="4"/>
     <x v="10"/>
-    <n v="0.2"/>
+    <n v="0.1"/>
   </r>
   <r>
-    <x v="4"/>
+    <x v="5"/>
     <x v="11"/>
+    <n v="0.1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="12"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="13"/>
+    <n v="0.5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="8"/>
     <n v="0"/>
   </r>
   <r>
-    <x v="4"/>
-    <x v="12"/>
+    <x v="8"/>
+    <x v="8"/>
     <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="13"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="14"/>
-    <n v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="55" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{43579B38-7B5F-4DDD-AF5C-A01A9D645B6A}" name="数据透视表3" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="7">
+      <items count="10">
         <item sd="0" x="3"/>
-        <item sd="0" x="5"/>
         <item sd="0" x="0"/>
         <item sd="0" x="2"/>
         <item sd="0" x="1"/>
         <item sd="0" x="4"/>
+        <item x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
         <item t="default" sd="0"/>
       </items>
       <autoSortScope>
@@ -1428,23 +2633,25 @@
       </autoSortScope>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="17">
+      <items count="19">
         <item x="1"/>
         <item x="6"/>
         <item x="7"/>
         <item x="0"/>
         <item x="10"/>
         <item x="2"/>
-        <item x="14"/>
-        <item x="11"/>
-        <item m="1" x="15"/>
+        <item m="1" x="14"/>
         <item x="3"/>
-        <item x="12"/>
+        <item m="1" x="16"/>
         <item x="9"/>
         <item x="5"/>
         <item x="4"/>
+        <item m="1" x="17"/>
+        <item x="8"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item m="1" x="15"/>
         <item x="13"/>
-        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1454,24 +2661,36 @@
     <field x="0"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="11">
     <i>
-      <x v="2"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="6"/>
     </i>
     <i>
       <x v="4"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="7"/>
     </i>
     <i>
       <x/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -1499,22 +2718,28 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="切片器_类别" sourceName="类别">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="切片器_类别" xr10:uid="{00000000-0013-0000-FFFF-FFFF01000000}" sourceName="类别">
   <pivotTables>
     <pivotTable tabId="4" name="数据透视表3"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="2">
-      <items count="6">
+    <tabular pivotCacheId="1077708392">
+      <items count="9">
         <i x="3" s="1"/>
+        <i x="8" s="1"/>
         <i x="5" s="1"/>
         <i x="0" s="1"/>
         <i x="2" s="1"/>
+        <i x="7" s="1"/>
+        <i x="6" s="1"/>
         <i x="1" s="1"/>
         <i x="4" s="1"/>
       </items>
@@ -1524,8 +2749,8 @@
 </file>
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="类别" cache="切片器_类别" caption="类别" rowHeight="209550"/>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="类别" xr10:uid="{00000000-0014-0000-FFFF-FFFF01000000}" cache="切片器_类别" caption="类别" rowHeight="209550"/>
 </slicers>
 </file>
 
@@ -1791,81 +3016,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" customWidth="1"/>
-    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="B4" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="3">
-        <v>1</v>
+      <c r="B7" s="3">
+        <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.4</v>
+      <c r="B9" s="3">
+        <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="3">
-        <v>12.4</v>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3">
+        <v>14.2</v>
       </c>
     </row>
   </sheetData>
@@ -1883,27 +3140,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1914,7 +3174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1925,7 +3185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1936,7 +3196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1947,7 +3207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1958,7 +3218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1969,7 +3229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1980,7 +3240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1991,7 +3251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1999,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2007,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2015,10 +3275,10 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2026,55 +3286,144 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18">
         <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00AA341-C8AC-4F0D-BA30-0C2B22FC7205}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="25.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/now-activity.xlsx
+++ b/now-activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\liangge\Documents\book\betterman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97D8B33-F9B5-475F-AEBD-A3E29B6F1A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F89017C-D2A7-4773-A040-27EB1AD4828C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="77" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -206,7 +206,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>心理、情绪、身体</t>
+    <t>心理、情绪、身体、环境</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -262,7 +262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -271,9 +271,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -2606,7 +2603,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{43579B38-7B5F-4DDD-AF5C-A01A9D645B6A}" name="数据透视表3" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{43579B38-7B5F-4DDD-AF5C-A01A9D645B6A}" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -3041,7 +3038,7 @@
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>8</v>
       </c>
     </row>
@@ -3049,7 +3046,7 @@
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>3</v>
       </c>
     </row>
@@ -3057,7 +3054,7 @@
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>2.5</v>
       </c>
     </row>
@@ -3065,7 +3062,7 @@
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>0.6</v>
       </c>
     </row>
@@ -3073,15 +3070,15 @@
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>0.1</v>
       </c>
     </row>
@@ -3089,7 +3086,7 @@
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>0</v>
       </c>
     </row>
@@ -3097,7 +3094,7 @@
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>0</v>
       </c>
     </row>
@@ -3105,7 +3102,7 @@
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>0</v>
       </c>
     </row>
@@ -3113,7 +3110,7 @@
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>0</v>
       </c>
     </row>
@@ -3121,7 +3118,7 @@
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>14.2</v>
       </c>
     </row>
@@ -3153,13 +3150,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3358,16 +3355,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>42</v>
       </c>
     </row>

--- a/now-activity.xlsx
+++ b/now-activity.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\liangge\Documents\book\betterman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F89017C-D2A7-4773-A040-27EB1AD4828C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07914183-BD58-48BD-8F16-466D6D71ADBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="活动透视" sheetId="4" r:id="rId1"/>
     <sheet name="每日活动数据" sheetId="1" r:id="rId2"/>
-    <sheet name="人生数据" sheetId="5" r:id="rId3"/>
+    <sheet name="人生仪表盘" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="切片器_类别">#N/A</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
   <si>
     <t>类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>健身房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,6 +203,92 @@
   </si>
   <si>
     <t>心理、情绪、身体、环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编程</t>
+  </si>
+  <si>
+    <t>方案设计</t>
+  </si>
+  <si>
+    <t>经营管理</t>
+  </si>
+  <si>
+    <t>软件工程</t>
+  </si>
+  <si>
+    <t>需求控制</t>
+  </si>
+  <si>
+    <t>研发管理</t>
+  </si>
+  <si>
+    <t>电影</t>
+  </si>
+  <si>
+    <t>短视频</t>
+  </si>
+  <si>
+    <t>(空白)</t>
+  </si>
+  <si>
+    <t>舞动人生</t>
+  </si>
+  <si>
+    <t>设计人生</t>
+  </si>
+  <si>
+    <t>掌控幸福</t>
+  </si>
+  <si>
+    <t>阅读</t>
+  </si>
+  <si>
+    <t>阅读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结、思考、阅读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身</t>
+  </si>
+  <si>
+    <t>健身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通勤</t>
+  </si>
+  <si>
+    <t>通勤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知乎等</t>
+  </si>
+  <si>
+    <t>知乎等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天</t>
+  </si>
+  <si>
+    <t>聊天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -262,7 +344,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -276,6 +358,9 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -449,41 +534,101 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>活动透视!$A$4:$A$14</c:f>
+              <c:f>活动透视!$A$4:$A$34</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="21"/>
                 <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>编程</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>方案设计</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>经营管理</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>软件工程</c:v>
+                  </c:pt>
                   <c:pt idx="4">
+                    <c:v>需求控制</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>研发管理</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>通勤</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>其他</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
                     <c:v>掌控情绪</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>阅读</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>电影</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>短视频</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>知乎等</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>聊天</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>设计人生</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>掌控幸福</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>舞动人生</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>健身</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>(空白)</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>(空白)</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>(空白)</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>工作</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="8">
+                    <c:v>成长</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
                     <c:v>娱乐</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="13">
+                    <c:v>社交</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>幸福</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="16">
                     <c:v>运动</c:v>
                   </c:pt>
-                  <c:pt idx="4">
-                    <c:v>成长</c:v>
+                  <c:pt idx="18">
+                    <c:v>爱好</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="19">
                     <c:v>表达</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="20">
                     <c:v>思考</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>爱好</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>社交</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -491,35 +636,71 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>活动透视!$B$4:$B$14</c:f>
+              <c:f>活动透视!$B$4:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -823,7 +1004,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>人生数据!$B$1</c:f>
+              <c:f>人生仪表盘!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -846,9 +1027,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>人生数据!$A$2:$A$5</c:f>
+              <c:f>人生仪表盘!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>健康</c:v>
                 </c:pt>
@@ -860,16 +1041,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>爱</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>成长</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>人生数据!$B$2:$B$5</c:f>
+              <c:f>人生仪表盘!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -880,6 +1064,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -911,7 +1098,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>人生数据!$C$1</c:f>
+              <c:f>人生仪表盘!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -946,9 +1133,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>人生数据!$A$2:$A$5</c:f>
+              <c:f>人生仪表盘!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>健康</c:v>
                 </c:pt>
@@ -960,16 +1147,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>爱</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>成长</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>人生数据!$C$2:$C$5</c:f>
+              <c:f>人生仪表盘!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -981,6 +1171,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2382,15 +2575,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>163830</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:colOff>205740</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2460,9 +2653,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="lenovo" refreshedDate="45060.050903587966" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="17" xr:uid="{A7853069-F662-4451-B536-6328C5C014C0}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="lenovo" refreshedDate="45227.732551504632" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="21" xr:uid="{A7853069-F662-4451-B536-6328C5C014C0}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:C18" sheet="每日活动数据"/>
+    <worksheetSource ref="A1:C22" sheet="每日活动数据"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="类别" numFmtId="0">
@@ -2479,21 +2672,27 @@
       </sharedItems>
     </cacheField>
     <cacheField name="活动名称" numFmtId="0">
-      <sharedItems containsBlank="1" count="18">
+      <sharedItems containsBlank="1" count="24">
         <s v="方案设计"/>
         <s v="编程"/>
         <s v="经营管理"/>
         <s v="软件工程"/>
         <s v="研发管理"/>
         <s v="需求控制"/>
+        <s v="通勤"/>
+        <s v="其他"/>
         <s v="电影"/>
         <s v="短视频"/>
+        <s v="知乎等"/>
+        <s v="聊天"/>
         <m/>
         <s v="舞动人生"/>
-        <s v="健身房"/>
+        <s v="健身"/>
+        <s v="阅读"/>
         <s v="掌控情绪"/>
         <s v="设计人生"/>
         <s v="掌控幸福"/>
+        <s v="健身房" u="1"/>
         <s v="篮球" u="1"/>
         <s v="学会幸福" u="1"/>
         <s v="跳绳" u="1"/>
@@ -2513,7 +2712,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="17">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="21">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -2545,78 +2744,98 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="0"/>
     <x v="6"/>
     <n v="1"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="0"/>
     <x v="7"/>
-    <n v="2"/>
+    <n v="1"/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="1"/>
     <x v="8"/>
     <n v="0"/>
   </r>
   <r>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="1"/>
+  </r>
+  <r>
     <x v="3"/>
-    <x v="8"/>
+    <x v="12"/>
     <n v="0"/>
   </r>
   <r>
     <x v="4"/>
-    <x v="9"/>
+    <x v="13"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="14"/>
     <n v="0.5"/>
   </r>
   <r>
-    <x v="4"/>
-    <x v="10"/>
-    <n v="0.1"/>
+    <x v="5"/>
+    <x v="15"/>
+    <n v="3"/>
   </r>
   <r>
     <x v="5"/>
-    <x v="11"/>
-    <n v="0.1"/>
+    <x v="16"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="6"/>
-    <x v="12"/>
-    <n v="2"/>
+    <x v="17"/>
+    <n v="0.25"/>
   </r>
   <r>
     <x v="6"/>
-    <x v="13"/>
-    <n v="0.5"/>
+    <x v="18"/>
+    <n v="0.25"/>
   </r>
   <r>
     <x v="7"/>
-    <x v="8"/>
+    <x v="12"/>
     <n v="0"/>
   </r>
   <r>
     <x v="8"/>
-    <x v="8"/>
+    <x v="12"/>
     <n v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{43579B38-7B5F-4DDD-AF5C-A01A9D645B6A}" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{43579B38-7B5F-4DDD-AF5C-A01A9D645B6A}" name="数据透视表3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A3:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="10">
-        <item sd="0" x="3"/>
-        <item sd="0" x="0"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
         <item x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
         <item t="default" sd="0"/>
       </items>
       <autoSortScope>
@@ -2630,25 +2849,31 @@
       </autoSortScope>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="19">
+      <items count="25">
         <item x="1"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item m="1" x="19"/>
+        <item x="2"/>
+        <item m="1" x="20"/>
+        <item x="3"/>
+        <item m="1" x="22"/>
+        <item x="13"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item m="1" x="23"/>
+        <item x="12"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item m="1" x="21"/>
+        <item x="18"/>
         <item x="6"/>
         <item x="7"/>
-        <item x="0"/>
         <item x="10"/>
-        <item x="2"/>
-        <item m="1" x="14"/>
-        <item x="3"/>
-        <item m="1" x="16"/>
-        <item x="9"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item m="1" x="17"/>
-        <item x="8"/>
         <item x="11"/>
-        <item x="12"/>
-        <item m="1" x="15"/>
-        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2658,18 +2883,33 @@
     <field x="0"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="11">
+  <rowItems count="31">
     <i>
       <x v="1"/>
     </i>
-    <i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
       <x v="3"/>
     </i>
-    <i>
-      <x v="6"/>
+    <i r="1">
+      <x v="5"/>
     </i>
-    <i>
-      <x v="4"/>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
     </i>
     <i>
       <x v="5"/>
@@ -2677,17 +2917,62 @@
     <i r="1">
       <x v="14"/>
     </i>
+    <i r="1">
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
     <i>
       <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
     </i>
     <i>
       <x v="7"/>
     </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
+    <i r="1">
+      <x v="13"/>
     </i>
     <i t="grand">
       <x/>
@@ -3014,10 +3299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:B14"/>
+  <dimension ref="A3:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3028,98 +3313,258 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="B4" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
+      <c r="A5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6">
-        <v>2.5</v>
+      <c r="A6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7">
-        <v>0.6</v>
+      <c r="A7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8">
-        <v>0.1</v>
+      <c r="A8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9">
-        <v>0.1</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="A10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
+      <c r="A11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
+      <c r="A12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13">
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14">
-        <v>14.2</v>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="5">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3138,11 +3583,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3228,10 +3671,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3239,18 +3682,21 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -3258,7 +3704,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -3266,54 +3715,51 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="C13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C16">
         <v>0.5</v>
@@ -3321,18 +3767,70 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
       </c>
       <c r="C18">
         <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3343,10 +3841,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00AA341-C8AC-4F0D-BA30-0C2B22FC7205}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3359,18 +3857,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -3379,7 +3877,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3406,16 +3904,30 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
